--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t xml:space="preserve">Hint</t>
   </si>
@@ -88,34 +88,22 @@
     <t xml:space="preserve">FHIR ID of the associated institution contact</t>
   </si>
   <si>
-    <t xml:space="preserve">enc_mrp_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed values: „1. First Med. Ana. on admission“, „2. First Med. Ana. after operation“, „3. Short stay &lt; 3 days“, „…“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enc_his_identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional – Identifier for the medical case in the hospital (Identifier in FHIR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_enc_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional – FHIR ID Versorgungsstellenkontakt</t>
+    <t xml:space="preserve">mrp_calculation_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of MRP (name of the submodule which has calculated the MRP e.g. “Drug_Disease”, “Drug_Drug”, “Drug_DrugGoup”, “Drug_Kidney”)</t>
   </si>
   <si>
     <t xml:space="preserve">meda_id</t>
   </si>
   <si>
-    <t xml:space="preserve">optional – Redcap ID of the medication_analysis_fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional – Type of MRP (name of the submodule which has calculated the MRP e.g. “Drug_Disease”, “Drug_Drug”, “Drug_DrugGoup”, “Drug_Kidney”)</t>
+    <t xml:space="preserve">Redcap ID of the medication_analysis_fe (empty if no MedAna exists for this Encounter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ret_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional – Redcap ID of the generated retrolective_mrpbewertung_fe</t>
   </si>
   <si>
     <t xml:space="preserve">mrp_proxy_type</t>
@@ -128,12 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">optional – Code of the proxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ret_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional – Redcap ID of the generated retrolective_mrpbewertung_fe</t>
   </si>
   <si>
     <t xml:space="preserve"># This table stores the type of a ward. The ward is given by it’s unique name.</t>
@@ -182,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,12 +211,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,10 +287,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +545,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,7 +657,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -697,11 +669,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,37 +714,18 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
@@ -782,18 +738,18 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -801,10 +757,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
@@ -812,18 +768,18 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -831,13 +787,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>

--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="frontend_table_description" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="table_description" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t xml:space="preserve">Hint</t>
   </si>
@@ -182,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,12 +229,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,10 +305,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,7 +625,7 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="XFD8" s="0"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
@@ -644,10 +634,10 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="0"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="XFD10" s="0"/>
+      <c r="XFD10" s="1"/>
     </row>
     <row r="12" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -662,7 +652,7 @@
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="XFD12" s="0"/>
+      <c r="XFD12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -700,8 +690,11 @@
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,11 +763,6 @@
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6"/>

--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t xml:space="preserve">Hint</t>
   </si>
@@ -118,43 +118,10 @@
     <t xml:space="preserve">optional – Code of the proxy</t>
   </si>
   <si>
-    <t xml:space="preserve"># This table stores the type of a ward. The ward is given by it’s unique name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dp_mrp_ward_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ward_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name of the ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ward_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of the ward, valid values are „surgical“, „internal“</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># The follwing table will store the results of the report calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># dp_report_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First column of the result table for reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># </t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second column of the result table for reports</t>
+    <t xml:space="preserve">input_file_processed_content_hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed content hash from input_data_files_processed_content of the MRP list</t>
   </si>
 </sst>
 </file>
@@ -544,15 +511,15 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="65.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="62.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="56.44"/>
   </cols>
@@ -607,7 +574,7 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="XFD8" s="0"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
@@ -616,10 +583,10 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="0"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="XFD10" s="0"/>
+      <c r="XFD10" s="1"/>
     </row>
     <row r="12" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -634,7 +601,7 @@
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="XFD12" s="0"/>
+      <c r="XFD12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -714,91 +681,29 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="frontend_table_description" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="table_description" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -511,8 +511,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="frontend_table_description" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="table_description" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">Hint</t>
   </si>
@@ -97,7 +97,19 @@
     <t xml:space="preserve">meda_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Redcap ID of the medication_analysis_fe (empty if no MedAna exists for this Encounter)</t>
+    <t xml:space="preserve">optional - Redcap ID of the medication_analysis_fe (empty if no MedAna exists for this Encounter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ward_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional – Name of the ward where the patient was during the medication analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study_phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional – Study phase („PhaseA“, „PhaseBTest“ or „PhaseB“); must be filled if meda_id is not empty</t>
   </si>
   <si>
     <t xml:space="preserve">ret_id</t>
@@ -118,43 +130,10 @@
     <t xml:space="preserve">optional – Code of the proxy</t>
   </si>
   <si>
-    <t xml:space="preserve"># This table stores the type of a ward. The ward is given by it’s unique name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dp_mrp_ward_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ward_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name of the ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ward_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of the ward, valid values are „surgical“, „internal“</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># The follwing table will store the results of the report calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># dp_report_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First column of the result table for reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># </t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second column of the result table for reports</t>
+    <t xml:space="preserve">input_file_processed_content_hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed content hash from input_data_files_processed_content of the MRP list</t>
   </si>
 </sst>
 </file>
@@ -544,15 +523,15 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="65.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="77.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="56.44"/>
   </cols>
@@ -607,7 +586,7 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="XFD8" s="0"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
@@ -616,10 +595,10 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="XFD9" s="0"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="XFD10" s="0"/>
+      <c r="XFD10" s="1"/>
     </row>
     <row r="12" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -634,7 +613,7 @@
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="XFD12" s="0"/>
+      <c r="XFD12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -681,7 +660,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -692,6 +671,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
@@ -703,7 +683,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -714,91 +695,49 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -103,13 +103,13 @@
     <t xml:space="preserve">ward_name</t>
   </si>
   <si>
-    <t xml:space="preserve">optional – Name of the ward where the patient was during the medication analysis</t>
+    <t xml:space="preserve">Name of the ward where the patient was during the medication analysis or the very first relevant ward</t>
   </si>
   <si>
     <t xml:space="preserve">study_phase</t>
   </si>
   <si>
-    <t xml:space="preserve">optional – Study phase („PhaseA“, „PhaseBTest“ or „PhaseB“); must be filled if meda_id is not empty</t>
+    <t xml:space="preserve">Study phase („PhaseA“, „PhaseBTest“ or „PhaseB“); must be filled if there was any contact with a observed ward in his medical case</t>
   </si>
   <si>
     <t xml:space="preserve">ret_id</t>
@@ -523,15 +523,15 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="77.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="56.44"/>
   </cols>

--- a/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
+++ b/R-dataprocessor/submodules/Dataprocessor_Submodules_Table_Description.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t xml:space="preserve">Hint</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">optional – Redcap ID of the generated retrolective_mrpbewertung_fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ret_redcap_repeat_instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional – Redcap repeat instance id</t>
   </si>
   <si>
     <t xml:space="preserve">mrp_proxy_type</t>
@@ -523,11 +529,11 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.63"/>
@@ -695,7 +701,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -720,19 +727,29 @@
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
     <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
